--- a/data/new_post_list.xlsx
+++ b/data/new_post_list.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,103 +437,92 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>순번</t>
+          <t>사업명</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>사업명</t>
+          <t>공고_담당자</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>공고_담당자</t>
+          <t>전화번호</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>전화번호</t>
+          <t>공고일</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>공고일</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>post_id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1074</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020년도 EU 협력진흥사업 신규과제 공모</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2020년도 EU 협력진흥사업 신규과제 공모</t>
+          <t>구주아프리카협력담당관 : 이세원</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>구주아프리카협력담당관 : 이세원</t>
+          <t>044-202-4354</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>044-202-4354</t>
+          <t>2020.09.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2020.09.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3114914</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="F2" t="n">
         <v>3114914</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1073</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020년도 하반기 한-EU 공동연구지원사업 신규과제 공모</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020년도 하반기 한-EU 공동연구지원사업 신규과제 공모</t>
+          <t>구주아프리카협력담당관 : 이세원</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>구주아프리카협력담당관 : 이세원</t>
+          <t>044-202-4354</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>044-202-4354</t>
+          <t>2020.09.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2020.09.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3114913</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="F3" t="n">
         <v>3114913</v>
       </c>
     </row>
